--- a/out_in/xls/morning_out.xlsx
+++ b/out_in/xls/morning_out.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF07BF6B-C08E-4524-A1E9-526322FEE23D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FD8451-152C-492F-9212-F50DC7FD9E01}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,15 +333,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE11"/>
+  <dimension ref="A1:BB63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -394,121 +394,115 @@
         <v>17</v>
       </c>
       <c r="S1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="V1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="W1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AD1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AE1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AG1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AI1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AM1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AN1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AO1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AP1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AR1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AT1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AU1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AV1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AW1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AX1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AY1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AZ1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BA1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="BB1">
-        <v>53</v>
-      </c>
-      <c r="BC1">
-        <v>54</v>
-      </c>
-      <c r="BD1">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -558,127 +552,121 @@
         <v>5.0115999999999996</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.8739666666666666</v>
+        <v>4.9623999999999997</v>
       </c>
       <c r="R2" s="1">
-        <v>1.8454333333333333</v>
+        <v>5.3168249999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>3.3494999999999999</v>
+        <v>1.8806333333333336</v>
       </c>
       <c r="T2" s="1">
-        <v>3.2155666666666662</v>
+        <v>6.6900499999999994</v>
       </c>
       <c r="U2" s="1">
-        <v>1.8806333333333336</v>
+        <v>4.9107999999999992</v>
       </c>
       <c r="V2" s="1">
-        <v>6.6900499999999994</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>4.9107999999999992</v>
+        <v>3.4178333333333328</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="Y2" s="1">
-        <v>3.4178333333333328</v>
+        <v>3.286</v>
       </c>
       <c r="Z2" s="1">
-        <v>4.4099999999999993</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.2759999999999998</v>
+        <v>5.5540000000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>1.89</v>
+        <v>2.5300000000000002</v>
       </c>
       <c r="AC2" s="1">
-        <v>5.5440000000000005</v>
+        <v>2.9080000000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>2.52</v>
+        <v>3.6640000000000001</v>
       </c>
       <c r="AE2" s="1">
-        <v>2.8980000000000001</v>
+        <v>3.16</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.6539999999999999</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AG2" s="1">
-        <v>3.1500000000000004</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>1.3333333333333333</v>
+        <v>3.286</v>
       </c>
       <c r="AI2" s="1">
-        <v>2.2049999999999996</v>
+        <v>4.42</v>
       </c>
       <c r="AJ2" s="1">
-        <v>3.2759999999999998</v>
+        <v>4.3696000000000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.4099999999999993</v>
+        <v>4.0924000000000005</v>
       </c>
       <c r="AL2" s="1">
-        <v>4.3595999999999995</v>
+        <v>3.7143999999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>4.0823999999999998</v>
+        <v>2.278</v>
       </c>
       <c r="AN2" s="1">
-        <v>3.7043999999999997</v>
+        <v>12.61</v>
       </c>
       <c r="AO2" s="1">
-        <v>2.2679999999999998</v>
+        <v>1.27</v>
       </c>
       <c r="AP2" s="1">
-        <v>2.52</v>
+        <v>6.3100000000000005</v>
       </c>
       <c r="AQ2" s="1">
-        <v>0</v>
+        <v>6.3100000000000005</v>
       </c>
       <c r="AR2" s="1">
-        <v>0</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AT2" s="1">
-        <v>0.52083333333333337</v>
+        <v>13.239999999999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>0</v>
+        <v>2.5300000000000002</v>
       </c>
       <c r="AV2" s="1">
-        <v>13.229999999999999</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="AW2" s="1">
-        <v>0</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="AX2" s="1">
-        <v>5.04</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="AY2" s="1">
-        <v>5.04</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.04</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="BA2" s="1">
-        <v>5.04</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="BB2" s="1">
-        <v>5.04</v>
-      </c>
-      <c r="BC2" s="1">
-        <v>5.04</v>
-      </c>
-      <c r="BD2" s="1">
-        <v>5.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+        <v>5.0500000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -728,127 +716,121 @@
         <v>5.0115999999999996</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.8739666666666666</v>
+        <v>4.9623999999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>1.8454333333333333</v>
+        <v>5.3168249999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>3.3494999999999999</v>
+        <v>1.8806333333333336</v>
       </c>
       <c r="T3" s="1">
-        <v>3.2155666666666662</v>
+        <v>6.6900499999999994</v>
       </c>
       <c r="U3" s="1">
-        <v>1.8806333333333336</v>
+        <v>4.9107999999999992</v>
       </c>
       <c r="V3" s="1">
-        <v>6.6900499999999994</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>4.9107999999999992</v>
+        <v>3.4178333333333328</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="Y3" s="1">
-        <v>3.4178333333333328</v>
+        <v>3.286</v>
       </c>
       <c r="Z3" s="1">
-        <v>4.4099999999999993</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>3.2759999999999998</v>
+        <v>5.5540000000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>1.89</v>
+        <v>2.5300000000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>5.5440000000000005</v>
+        <v>2.9080000000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>2.52</v>
+        <v>3.6640000000000001</v>
       </c>
       <c r="AE3" s="1">
-        <v>2.8980000000000001</v>
+        <v>3.16</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.6539999999999999</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="AG3" s="1">
-        <v>3.1500000000000004</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>1.3333333333333333</v>
+        <v>3.286</v>
       </c>
       <c r="AI3" s="1">
-        <v>2.2049999999999996</v>
+        <v>4.42</v>
       </c>
       <c r="AJ3" s="1">
-        <v>3.2759999999999998</v>
+        <v>4.3696000000000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.4099999999999993</v>
+        <v>4.0924000000000005</v>
       </c>
       <c r="AL3" s="1">
-        <v>4.3595999999999995</v>
+        <v>3.7143999999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>4.0823999999999998</v>
+        <v>2.278</v>
       </c>
       <c r="AN3" s="1">
-        <v>3.7043999999999997</v>
+        <v>12.61</v>
       </c>
       <c r="AO3" s="1">
-        <v>2.2679999999999998</v>
+        <v>1.27</v>
       </c>
       <c r="AP3" s="1">
-        <v>2.52</v>
+        <v>6.3100000000000005</v>
       </c>
       <c r="AQ3" s="1">
-        <v>0</v>
+        <v>6.3100000000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>0</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AT3" s="1">
-        <v>0.52083333333333337</v>
+        <v>13.239999999999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>0</v>
+        <v>2.5300000000000002</v>
       </c>
       <c r="AV3" s="1">
-        <v>13.229999999999999</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="AW3" s="1">
-        <v>0</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="AX3" s="1">
-        <v>5.04</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="AY3" s="1">
-        <v>5.04</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.04</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="BA3" s="1">
-        <v>5.04</v>
+        <v>5.0500000000000007</v>
       </c>
       <c r="BB3" s="1">
-        <v>5.04</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>5.04</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>5.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+        <v>5.0500000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -898,127 +880,121 @@
         <v>10.023199999999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>3.7479333333333331</v>
+        <v>9.9247999999999994</v>
       </c>
       <c r="R4" s="1">
-        <v>3.6908666666666665</v>
+        <v>10.633649999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>6.6989999999999998</v>
+        <v>3.7612666666666672</v>
       </c>
       <c r="T4" s="1">
-        <v>6.4311333333333325</v>
+        <v>13.380099999999999</v>
       </c>
       <c r="U4" s="1">
-        <v>3.7612666666666672</v>
+        <v>9.8215999999999983</v>
       </c>
       <c r="V4" s="1">
-        <v>13.380099999999999</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>9.8215999999999983</v>
+        <v>6.8356666666666657</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>8.84</v>
       </c>
       <c r="Y4" s="1">
-        <v>6.8356666666666657</v>
+        <v>6.5720000000000001</v>
       </c>
       <c r="Z4" s="1">
-        <v>8.8199999999999985</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.5519999999999996</v>
+        <v>11.108000000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>3.78</v>
+        <v>5.0600000000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>11.088000000000001</v>
+        <v>5.8160000000000007</v>
       </c>
       <c r="AD4" s="1">
-        <v>5.04</v>
+        <v>7.3280000000000003</v>
       </c>
       <c r="AE4" s="1">
-        <v>5.7960000000000003</v>
+        <v>6.32</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.3079999999999998</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AG4" s="1">
-        <v>6.3000000000000007</v>
+        <v>4.43</v>
       </c>
       <c r="AH4" s="1">
-        <v>2.6666666666666665</v>
+        <v>6.5720000000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>4.4099999999999993</v>
+        <v>8.84</v>
       </c>
       <c r="AJ4" s="1">
-        <v>6.5519999999999996</v>
+        <v>8.7392000000000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.8199999999999985</v>
+        <v>8.184800000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>8.719199999999999</v>
+        <v>7.4287999999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>8.1647999999999996</v>
+        <v>4.556</v>
       </c>
       <c r="AN4" s="1">
-        <v>7.4087999999999994</v>
+        <v>25.22</v>
       </c>
       <c r="AO4" s="1">
-        <v>4.5359999999999996</v>
+        <v>2.54</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.04</v>
+        <v>12.620000000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>0</v>
+        <v>12.620000000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>0</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AT4" s="1">
-        <v>1.0416666666666667</v>
+        <v>26.479999999999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>0</v>
+        <v>5.0600000000000005</v>
       </c>
       <c r="AV4" s="1">
-        <v>26.459999999999997</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>0</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>10.08</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AY4" s="1">
-        <v>10.08</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>10.08</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>10.08</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>10.08</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>10.08</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+        <v>10.100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1068,127 +1044,121 @@
         <v>15.034799999999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.6218999999999992</v>
+        <v>14.887199999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>5.5362999999999989</v>
+        <v>15.950474999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>10.048499999999999</v>
+        <v>5.6419000000000006</v>
       </c>
       <c r="T5" s="1">
-        <v>9.6466999999999974</v>
+        <v>20.070149999999998</v>
       </c>
       <c r="U5" s="1">
-        <v>5.6419000000000006</v>
+        <v>14.732399999999997</v>
       </c>
       <c r="V5" s="1">
-        <v>20.070149999999998</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>14.732399999999997</v>
+        <v>10.253499999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>0</v>
+        <v>13.259999999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>10.253499999999997</v>
+        <v>9.8579999999999988</v>
       </c>
       <c r="Z5" s="1">
-        <v>13.229999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.8279999999999994</v>
+        <v>16.661999999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>5.669999999999999</v>
+        <v>7.59</v>
       </c>
       <c r="AC5" s="1">
-        <v>16.631999999999998</v>
+        <v>8.7240000000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>7.56</v>
+        <v>10.991999999999999</v>
       </c>
       <c r="AE5" s="1">
-        <v>8.6939999999999991</v>
+        <v>9.48</v>
       </c>
       <c r="AF5" s="1">
-        <v>10.962</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="AG5" s="1">
-        <v>9.4499999999999993</v>
+        <v>6.6449999999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>3.9999999999999996</v>
+        <v>9.8579999999999988</v>
       </c>
       <c r="AI5" s="1">
-        <v>6.6149999999999993</v>
+        <v>13.259999999999998</v>
       </c>
       <c r="AJ5" s="1">
-        <v>9.8279999999999994</v>
+        <v>13.108799999999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>13.229999999999999</v>
+        <v>12.277199999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>13.078799999999999</v>
+        <v>11.143199999999998</v>
       </c>
       <c r="AM5" s="1">
-        <v>12.247199999999999</v>
+        <v>6.8339999999999987</v>
       </c>
       <c r="AN5" s="1">
-        <v>11.113199999999999</v>
+        <v>37.83</v>
       </c>
       <c r="AO5" s="1">
-        <v>6.8039999999999985</v>
+        <v>3.8099999999999996</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.56</v>
+        <v>18.93</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0</v>
+        <v>18.93</v>
       </c>
       <c r="AR5" s="1">
-        <v>0</v>
+        <v>1.5625000000000002</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>3.8099999999999996</v>
       </c>
       <c r="AT5" s="1">
-        <v>1.5625000000000002</v>
+        <v>39.719999999999992</v>
       </c>
       <c r="AU5" s="1">
-        <v>0</v>
+        <v>7.59</v>
       </c>
       <c r="AV5" s="1">
-        <v>39.689999999999991</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>0</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AY5" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>15.12</v>
-      </c>
-      <c r="BC5" s="1">
-        <v>15.12</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>15.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+        <v>15.149999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1238,127 +1208,121 @@
         <v>15.034799999999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.6218999999999992</v>
+        <v>14.887199999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>5.5362999999999989</v>
+        <v>15.950474999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>10.048499999999999</v>
+        <v>5.6419000000000006</v>
       </c>
       <c r="T6" s="1">
-        <v>9.6466999999999974</v>
+        <v>20.070149999999998</v>
       </c>
       <c r="U6" s="1">
-        <v>5.6419000000000006</v>
+        <v>14.732399999999997</v>
       </c>
       <c r="V6" s="1">
-        <v>20.070149999999998</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>14.732399999999997</v>
+        <v>10.253499999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>13.259999999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>10.253499999999997</v>
+        <v>9.8579999999999988</v>
       </c>
       <c r="Z6" s="1">
-        <v>13.229999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.8279999999999994</v>
+        <v>16.661999999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>5.669999999999999</v>
+        <v>7.59</v>
       </c>
       <c r="AC6" s="1">
-        <v>16.631999999999998</v>
+        <v>8.7240000000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>7.56</v>
+        <v>10.991999999999999</v>
       </c>
       <c r="AE6" s="1">
-        <v>8.6939999999999991</v>
+        <v>9.48</v>
       </c>
       <c r="AF6" s="1">
-        <v>10.962</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="AG6" s="1">
-        <v>9.4499999999999993</v>
+        <v>6.6449999999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>3.9999999999999996</v>
+        <v>9.8579999999999988</v>
       </c>
       <c r="AI6" s="1">
-        <v>6.6149999999999993</v>
+        <v>13.259999999999998</v>
       </c>
       <c r="AJ6" s="1">
-        <v>9.8279999999999994</v>
+        <v>13.108799999999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>13.229999999999999</v>
+        <v>12.277199999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>13.078799999999999</v>
+        <v>11.143199999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>12.247199999999999</v>
+        <v>6.8339999999999987</v>
       </c>
       <c r="AN6" s="1">
-        <v>11.113199999999999</v>
+        <v>37.83</v>
       </c>
       <c r="AO6" s="1">
-        <v>6.8039999999999985</v>
+        <v>3.8099999999999996</v>
       </c>
       <c r="AP6" s="1">
-        <v>7.56</v>
+        <v>18.93</v>
       </c>
       <c r="AQ6" s="1">
-        <v>0</v>
+        <v>18.93</v>
       </c>
       <c r="AR6" s="1">
-        <v>0</v>
+        <v>1.5625000000000002</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>3.8099999999999996</v>
       </c>
       <c r="AT6" s="1">
-        <v>1.5625000000000002</v>
+        <v>39.719999999999992</v>
       </c>
       <c r="AU6" s="1">
-        <v>0</v>
+        <v>7.59</v>
       </c>
       <c r="AV6" s="1">
-        <v>39.689999999999991</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>0</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AY6" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>15.12</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>15.12</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>15.12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+        <v>15.149999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1408,127 +1372,121 @@
         <v>15.034799999999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.6218999999999992</v>
+        <v>14.887199999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>5.5362999999999989</v>
+        <v>15.950474999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>10.048499999999999</v>
+        <v>5.6419000000000006</v>
       </c>
       <c r="T7" s="1">
-        <v>9.6466999999999974</v>
+        <v>20.070149999999998</v>
       </c>
       <c r="U7" s="1">
-        <v>5.6419000000000006</v>
+        <v>14.732399999999997</v>
       </c>
       <c r="V7" s="1">
-        <v>20.070149999999998</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>14.732399999999997</v>
+        <v>10.253499999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>13.259999999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>10.253499999999997</v>
+        <v>9.8579999999999988</v>
       </c>
       <c r="Z7" s="1">
-        <v>13.229999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.8279999999999994</v>
+        <v>16.661999999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>5.669999999999999</v>
+        <v>7.59</v>
       </c>
       <c r="AC7" s="1">
-        <v>16.631999999999998</v>
+        <v>8.7240000000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>7.56</v>
+        <v>10.991999999999999</v>
       </c>
       <c r="AE7" s="1">
-        <v>8.6939999999999991</v>
+        <v>9.48</v>
       </c>
       <c r="AF7" s="1">
-        <v>10.962</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>9.4499999999999993</v>
+        <v>6.6449999999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>3.9999999999999996</v>
+        <v>9.8579999999999988</v>
       </c>
       <c r="AI7" s="1">
-        <v>6.6149999999999993</v>
+        <v>13.259999999999998</v>
       </c>
       <c r="AJ7" s="1">
-        <v>9.8279999999999994</v>
+        <v>13.108799999999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>13.229999999999999</v>
+        <v>12.277199999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>13.078799999999999</v>
+        <v>11.143199999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>12.247199999999999</v>
+        <v>6.8339999999999987</v>
       </c>
       <c r="AN7" s="1">
-        <v>11.113199999999999</v>
+        <v>37.83</v>
       </c>
       <c r="AO7" s="1">
-        <v>6.8039999999999985</v>
+        <v>3.8099999999999996</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.56</v>
+        <v>18.93</v>
       </c>
       <c r="AQ7" s="1">
-        <v>0</v>
+        <v>18.93</v>
       </c>
       <c r="AR7" s="1">
-        <v>0</v>
+        <v>1.5625000000000002</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>3.8099999999999996</v>
       </c>
       <c r="AT7" s="1">
-        <v>1.5625000000000002</v>
+        <v>39.719999999999992</v>
       </c>
       <c r="AU7" s="1">
-        <v>0</v>
+        <v>7.59</v>
       </c>
       <c r="AV7" s="1">
-        <v>39.689999999999991</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>0</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AY7" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>15.12</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>15.12</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>15.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+        <v>15.149999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1578,127 +1536,121 @@
         <v>15.034799999999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.6218999999999992</v>
+        <v>14.887199999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>5.5362999999999989</v>
+        <v>15.950474999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>10.048499999999999</v>
+        <v>5.6419000000000006</v>
       </c>
       <c r="T8" s="1">
-        <v>9.6466999999999974</v>
+        <v>20.070149999999998</v>
       </c>
       <c r="U8" s="1">
-        <v>5.6419000000000006</v>
+        <v>14.732399999999997</v>
       </c>
       <c r="V8" s="1">
-        <v>20.070149999999998</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>14.732399999999997</v>
+        <v>10.253499999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>13.259999999999998</v>
       </c>
       <c r="Y8" s="1">
-        <v>10.253499999999997</v>
+        <v>9.8579999999999988</v>
       </c>
       <c r="Z8" s="1">
-        <v>13.229999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.8279999999999994</v>
+        <v>16.661999999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>5.669999999999999</v>
+        <v>7.59</v>
       </c>
       <c r="AC8" s="1">
-        <v>16.631999999999998</v>
+        <v>8.7240000000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>7.56</v>
+        <v>10.991999999999999</v>
       </c>
       <c r="AE8" s="1">
-        <v>8.6939999999999991</v>
+        <v>9.48</v>
       </c>
       <c r="AF8" s="1">
-        <v>10.962</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>9.4499999999999993</v>
+        <v>6.6449999999999996</v>
       </c>
       <c r="AH8" s="1">
-        <v>3.9999999999999996</v>
+        <v>9.8579999999999988</v>
       </c>
       <c r="AI8" s="1">
-        <v>6.6149999999999993</v>
+        <v>13.259999999999998</v>
       </c>
       <c r="AJ8" s="1">
-        <v>9.8279999999999994</v>
+        <v>13.108799999999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>13.229999999999999</v>
+        <v>12.277199999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>13.078799999999999</v>
+        <v>11.143199999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>12.247199999999999</v>
+        <v>6.8339999999999987</v>
       </c>
       <c r="AN8" s="1">
-        <v>11.113199999999999</v>
+        <v>37.83</v>
       </c>
       <c r="AO8" s="1">
-        <v>6.8039999999999985</v>
+        <v>3.8099999999999996</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.56</v>
+        <v>18.93</v>
       </c>
       <c r="AQ8" s="1">
-        <v>0</v>
+        <v>18.93</v>
       </c>
       <c r="AR8" s="1">
-        <v>0</v>
+        <v>1.5625000000000002</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>3.8099999999999996</v>
       </c>
       <c r="AT8" s="1">
-        <v>1.5625000000000002</v>
+        <v>39.719999999999992</v>
       </c>
       <c r="AU8" s="1">
-        <v>0</v>
+        <v>7.59</v>
       </c>
       <c r="AV8" s="1">
-        <v>39.689999999999991</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>0</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AY8" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>15.12</v>
+        <v>15.149999999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>15.12</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>15.12</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>15.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+        <v>15.149999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1748,127 +1700,121 @@
         <v>10.023199999999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.7479333333333331</v>
+        <v>9.9247999999999994</v>
       </c>
       <c r="R9" s="1">
-        <v>3.6908666666666665</v>
+        <v>10.633649999999999</v>
       </c>
       <c r="S9" s="1">
-        <v>6.6989999999999998</v>
+        <v>3.7612666666666672</v>
       </c>
       <c r="T9" s="1">
-        <v>6.4311333333333325</v>
+        <v>13.380099999999999</v>
       </c>
       <c r="U9" s="1">
-        <v>3.7612666666666672</v>
+        <v>9.8215999999999983</v>
       </c>
       <c r="V9" s="1">
-        <v>13.380099999999999</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>9.8215999999999983</v>
+        <v>6.8356666666666657</v>
       </c>
       <c r="X9" s="1">
-        <v>0</v>
+        <v>8.84</v>
       </c>
       <c r="Y9" s="1">
-        <v>6.8356666666666657</v>
+        <v>6.5720000000000001</v>
       </c>
       <c r="Z9" s="1">
-        <v>8.8199999999999985</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.5519999999999996</v>
+        <v>11.108000000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>3.78</v>
+        <v>5.0600000000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>11.088000000000001</v>
+        <v>5.8160000000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>5.04</v>
+        <v>7.3280000000000003</v>
       </c>
       <c r="AE9" s="1">
-        <v>5.7960000000000003</v>
+        <v>6.32</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.3079999999999998</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AG9" s="1">
-        <v>6.3000000000000007</v>
+        <v>4.43</v>
       </c>
       <c r="AH9" s="1">
-        <v>2.6666666666666665</v>
+        <v>6.5720000000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>4.4099999999999993</v>
+        <v>8.84</v>
       </c>
       <c r="AJ9" s="1">
-        <v>6.5519999999999996</v>
+        <v>8.7392000000000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.8199999999999985</v>
+        <v>8.184800000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>8.719199999999999</v>
+        <v>7.4287999999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>8.1647999999999996</v>
+        <v>4.556</v>
       </c>
       <c r="AN9" s="1">
-        <v>7.4087999999999994</v>
+        <v>25.22</v>
       </c>
       <c r="AO9" s="1">
-        <v>4.5359999999999996</v>
+        <v>2.54</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.04</v>
+        <v>12.620000000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>0</v>
+        <v>12.620000000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>0</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AT9" s="1">
-        <v>1.0416666666666667</v>
+        <v>26.479999999999997</v>
       </c>
       <c r="AU9" s="1">
-        <v>0</v>
+        <v>5.0600000000000005</v>
       </c>
       <c r="AV9" s="1">
-        <v>26.459999999999997</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>0</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>10.08</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AY9" s="1">
-        <v>10.08</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.08</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>10.08</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>10.08</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>10.08</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+        <v>10.100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1918,183 +1864,374 @@
         <v>10.023199999999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>3.7479333333333331</v>
+        <v>9.9247999999999994</v>
       </c>
       <c r="R10" s="1">
-        <v>3.6908666666666665</v>
+        <v>10.633649999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>6.6989999999999998</v>
+        <v>3.7612666666666672</v>
       </c>
       <c r="T10" s="1">
-        <v>6.4311333333333325</v>
+        <v>13.380099999999999</v>
       </c>
       <c r="U10" s="1">
-        <v>3.7612666666666672</v>
+        <v>9.8215999999999983</v>
       </c>
       <c r="V10" s="1">
-        <v>13.380099999999999</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>9.8215999999999983</v>
+        <v>6.8356666666666657</v>
       </c>
       <c r="X10" s="1">
-        <v>0</v>
+        <v>8.84</v>
       </c>
       <c r="Y10" s="1">
-        <v>6.8356666666666657</v>
+        <v>6.5720000000000001</v>
       </c>
       <c r="Z10" s="1">
-        <v>8.8199999999999985</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="AA10" s="1">
-        <v>6.5519999999999996</v>
+        <v>11.108000000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>3.78</v>
+        <v>5.0600000000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>11.088000000000001</v>
+        <v>5.8160000000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>5.04</v>
+        <v>7.3280000000000003</v>
       </c>
       <c r="AE10" s="1">
-        <v>5.7960000000000003</v>
+        <v>6.32</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.3079999999999998</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AG10" s="1">
-        <v>6.3000000000000007</v>
+        <v>4.43</v>
       </c>
       <c r="AH10" s="1">
-        <v>2.6666666666666665</v>
+        <v>6.5720000000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>4.4099999999999993</v>
+        <v>8.84</v>
       </c>
       <c r="AJ10" s="1">
-        <v>6.5519999999999996</v>
+        <v>8.7392000000000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.8199999999999985</v>
+        <v>8.184800000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>8.719199999999999</v>
+        <v>7.4287999999999998</v>
       </c>
       <c r="AM10" s="1">
-        <v>8.1647999999999996</v>
+        <v>4.556</v>
       </c>
       <c r="AN10" s="1">
-        <v>7.4087999999999994</v>
+        <v>25.22</v>
       </c>
       <c r="AO10" s="1">
-        <v>4.5359999999999996</v>
+        <v>2.54</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.04</v>
+        <v>12.620000000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>0</v>
+        <v>12.620000000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>0</v>
+        <v>1.0416666666666667</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AT10" s="1">
-        <v>1.0416666666666667</v>
+        <v>26.479999999999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>0</v>
+        <v>5.0600000000000005</v>
       </c>
       <c r="AV10" s="1">
-        <v>26.459999999999997</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>0</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>10.08</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AY10" s="1">
-        <v>10.08</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.08</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>10.08</v>
+        <v>10.100000000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>10.08</v>
-      </c>
-      <c r="BC10" s="1">
-        <v>10.08</v>
-      </c>
-      <c r="BD10" s="1">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
+        <v>10.100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
